--- a/output/Samsung-output.xlsx
+++ b/output/Samsung-output.xlsx
@@ -1341,7 +1341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,6 +1366,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1412,7 +1418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,17 +1435,29 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1448,7 +1466,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,47 +1776,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="49.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="3" max="3" style="10" width="29.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="49.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="12.43357142857143" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="3" max="3" style="14" width="29.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1990,7 +2008,7 @@
       <c r="AA2" s="7">
         <v>23.7</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AC2" s="7">
@@ -2226,7 +2244,7 @@
       <c r="D5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>1766</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -2261,12 +2279,12 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="AJ5" s="10"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
@@ -2562,7 +2580,7 @@
       <c r="D9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <v>686</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -2597,12 +2615,12 @@
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
@@ -2617,7 +2635,7 @@
       <c r="D10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <v>580</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -2652,12 +2670,12 @@
       <c r="AG10" s="5"/>
       <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="AJ10" s="10"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
@@ -2854,7 +2872,7 @@
       <c r="D13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <v>855</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2889,12 +2907,12 @@
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
+      <c r="AJ13" s="10"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4" t="s">
@@ -2909,7 +2927,7 @@
       <c r="D14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>799</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -2944,12 +2962,12 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
+      <c r="AJ14" s="10"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4" t="s">
@@ -2964,7 +2982,7 @@
       <c r="D15" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>930</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -2999,12 +3017,12 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
+      <c r="AJ15" s="10"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
       <c r="A16" s="4" t="s">
@@ -3019,7 +3037,7 @@
       <c r="D16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>825</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -3054,12 +3072,12 @@
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
+      <c r="AJ16" s="10"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
       <c r="A17" s="4" t="s">
@@ -3074,7 +3092,7 @@
       <c r="D17" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <v>845</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -3109,12 +3127,12 @@
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+      <c r="AJ17" s="10"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
       <c r="A18" s="4" t="s">
@@ -3129,7 +3147,7 @@
       <c r="D18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <v>725</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -3164,12 +3182,12 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+      <c r="AJ18" s="10"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="4" t="s">
@@ -3277,7 +3295,7 @@
       <c r="D20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <v>1100</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -3312,12 +3330,12 @@
       <c r="AG20" s="5"/>
       <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
+      <c r="AJ20" s="10"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="4" t="s">
@@ -3332,7 +3350,7 @@
       <c r="D21" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <v>1499</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -3367,12 +3385,12 @@
       <c r="AG21" s="5"/>
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
+      <c r="AJ21" s="10"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="4" t="s">
@@ -3753,7 +3771,7 @@
       <c r="D26" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <v>2222</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -3788,12 +3806,12 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
+      <c r="AJ26" s="10"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="4" t="s">
@@ -3808,7 +3826,7 @@
       <c r="D27" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <v>1903</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -3843,12 +3861,12 @@
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
+      <c r="AJ27" s="10"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="4" t="s">
@@ -3863,7 +3881,7 @@
       <c r="D28" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <v>1295</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -3898,12 +3916,12 @@
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
+      <c r="AJ28" s="10"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="4" t="s">
@@ -4187,7 +4205,7 @@
       <c r="D32" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>2607</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -4222,12 +4240,12 @@
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
+      <c r="AJ32" s="10"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="4" t="s">
@@ -4428,7 +4446,7 @@
       <c r="D35" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <v>2354</v>
       </c>
       <c r="F35" s="5" t="s">
@@ -4463,12 +4481,12 @@
       <c r="AG35" s="5"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
+      <c r="AJ35" s="10"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
       <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="4" t="s">
@@ -4483,7 +4501,7 @@
       <c r="D36" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <v>2700</v>
       </c>
       <c r="F36" s="5" t="s">
@@ -4518,12 +4536,12 @@
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
+      <c r="AJ36" s="10"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="4" t="s">
@@ -4538,7 +4556,7 @@
       <c r="D37" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <v>4490</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -4573,12 +4591,12 @@
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
+      <c r="AJ37" s="10"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="4" t="s">
@@ -4593,7 +4611,7 @@
       <c r="D38" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>5500</v>
       </c>
       <c r="F38" s="5" t="s">
@@ -4628,12 +4646,12 @@
       <c r="AG38" s="5"/>
       <c r="AH38" s="5"/>
       <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
+      <c r="AJ38" s="10"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
       <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="4" t="s">
@@ -4648,7 +4666,7 @@
       <c r="D39" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <v>3475</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -4683,12 +4701,12 @@
       <c r="AG39" s="5"/>
       <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
+      <c r="AJ39" s="10"/>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="4" t="s">
@@ -4796,7 +4814,7 @@
       <c r="D41" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <v>19999</v>
       </c>
       <c r="F41" s="5" t="s">
@@ -4831,12 +4849,12 @@
       <c r="AG41" s="5"/>
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
+      <c r="AJ41" s="10"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="4" t="s">
@@ -5031,7 +5049,7 @@
       <c r="D44" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <v>179</v>
       </c>
       <c r="F44" s="5" t="s">
@@ -5066,12 +5084,12 @@
       <c r="AG44" s="5"/>
       <c r="AH44" s="5"/>
       <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
+      <c r="AJ44" s="10"/>
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
       <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
+      <c r="AN44" s="10"/>
+      <c r="AO44" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="4" t="s">
@@ -5227,13 +5245,13 @@
       <c r="Z46" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="AA46" s="9">
+      <c r="AA46" s="11">
         <v>52.75</v>
       </c>
-      <c r="AB46" s="9">
+      <c r="AB46" s="11">
         <v>5.1</v>
       </c>
-      <c r="AC46" s="8">
+      <c r="AC46" s="9">
         <v>30</v>
       </c>
       <c r="AD46" s="5" t="s">
@@ -5324,13 +5342,13 @@
       <c r="Z47" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AA47" s="9">
+      <c r="AA47" s="11">
         <v>165.5</v>
       </c>
-      <c r="AB47" s="9">
+      <c r="AB47" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC47" s="9">
+      <c r="AC47" s="11">
         <v>44.625</v>
       </c>
       <c r="AD47" s="5" t="s">
@@ -5421,13 +5439,13 @@
       <c r="Z48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AA48" s="9">
+      <c r="AA48" s="11">
         <v>165.5</v>
       </c>
-      <c r="AB48" s="9">
+      <c r="AB48" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC48" s="9">
+      <c r="AC48" s="11">
         <v>44.625</v>
       </c>
       <c r="AD48" s="5" t="s">
@@ -5518,13 +5536,13 @@
       <c r="Z49" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AA49" s="9">
+      <c r="AA49" s="11">
         <v>165.5</v>
       </c>
-      <c r="AB49" s="9">
+      <c r="AB49" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC49" s="9">
+      <c r="AC49" s="11">
         <v>44.625</v>
       </c>
       <c r="AD49" s="5" t="s">
@@ -5615,13 +5633,13 @@
       <c r="Z50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AA50" s="9">
+      <c r="AA50" s="11">
         <v>165.5</v>
       </c>
-      <c r="AB50" s="9">
+      <c r="AB50" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC50" s="9">
+      <c r="AC50" s="11">
         <v>44.625</v>
       </c>
       <c r="AD50" s="5" t="s">
@@ -5712,13 +5730,13 @@
       <c r="Z51" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="AA51" s="9">
+      <c r="AA51" s="11">
         <v>165.5</v>
       </c>
-      <c r="AB51" s="9">
+      <c r="AB51" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC51" s="9">
+      <c r="AC51" s="11">
         <v>44.625</v>
       </c>
       <c r="AD51" s="5" t="s">
@@ -5809,13 +5827,13 @@
       <c r="Z52" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="AA52" s="9">
+      <c r="AA52" s="11">
         <v>35.625</v>
       </c>
-      <c r="AB52" s="9">
+      <c r="AB52" s="11">
         <v>85.625</v>
       </c>
-      <c r="AC52" s="9">
+      <c r="AC52" s="11">
         <v>44.625</v>
       </c>
       <c r="AD52" s="5" t="s">
@@ -5945,7 +5963,7 @@
       <c r="D54" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="12"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -6687,7 +6705,7 @@
       <c r="D62" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E62" s="8">
+      <c r="E62" s="9">
         <v>489</v>
       </c>
       <c r="F62" s="5" t="s">
@@ -6722,12 +6740,12 @@
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
       <c r="AI62" s="5"/>
-      <c r="AJ62" s="5"/>
+      <c r="AJ62" s="10"/>
       <c r="AK62" s="5"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="5"/>
+      <c r="AN62" s="10"/>
+      <c r="AO62" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="4" t="s">
@@ -7585,7 +7603,7 @@
       <c r="D72" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="9">
         <v>595</v>
       </c>
       <c r="F72" s="5" t="s">
@@ -7620,12 +7638,12 @@
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
-      <c r="AJ72" s="5"/>
+      <c r="AJ72" s="10"/>
       <c r="AK72" s="5"/>
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="5"/>
+      <c r="AN72" s="10"/>
+      <c r="AO72" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="4" t="s">
@@ -7919,7 +7937,7 @@
       <c r="D76" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76" s="9">
         <v>800</v>
       </c>
       <c r="F76" s="5" t="s">
@@ -7954,12 +7972,12 @@
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
-      <c r="AJ76" s="5"/>
+      <c r="AJ76" s="10"/>
       <c r="AK76" s="5"/>
       <c r="AL76" s="5"/>
       <c r="AM76" s="5"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="5"/>
+      <c r="AN76" s="10"/>
+      <c r="AO76" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="4" t="s">
@@ -7974,7 +7992,7 @@
       <c r="D77" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77" s="9">
         <v>2799</v>
       </c>
       <c r="F77" s="5" t="s">
@@ -8009,12 +8027,12 @@
       <c r="AG77" s="5"/>
       <c r="AH77" s="5"/>
       <c r="AI77" s="5"/>
-      <c r="AJ77" s="5"/>
+      <c r="AJ77" s="10"/>
       <c r="AK77" s="5"/>
       <c r="AL77" s="5"/>
       <c r="AM77" s="5"/>
-      <c r="AN77" s="5"/>
-      <c r="AO77" s="5"/>
+      <c r="AN77" s="10"/>
+      <c r="AO77" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="4" t="s">
@@ -8029,7 +8047,7 @@
       <c r="D78" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78" s="9">
         <v>720</v>
       </c>
       <c r="F78" s="5" t="s">
@@ -8064,12 +8082,12 @@
       <c r="AG78" s="5"/>
       <c r="AH78" s="5"/>
       <c r="AI78" s="5"/>
-      <c r="AJ78" s="5"/>
+      <c r="AJ78" s="10"/>
       <c r="AK78" s="5"/>
       <c r="AL78" s="5"/>
       <c r="AM78" s="5"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="5"/>
+      <c r="AN78" s="10"/>
+      <c r="AO78" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="4" t="s">
@@ -9754,7 +9772,7 @@
       <c r="D97" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E97" s="8">
+      <c r="E97" s="9">
         <v>876</v>
       </c>
       <c r="F97" s="5" t="s">
@@ -9789,12 +9807,12 @@
       <c r="AG97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
-      <c r="AJ97" s="5"/>
+      <c r="AJ97" s="10"/>
       <c r="AK97" s="5"/>
       <c r="AL97" s="5"/>
       <c r="AM97" s="5"/>
-      <c r="AN97" s="5"/>
-      <c r="AO97" s="5"/>
+      <c r="AN97" s="10"/>
+      <c r="AO97" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="4" t="s">
@@ -9984,7 +10002,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="4" t="s">
         <v>41</v>
       </c>
@@ -9997,7 +10015,7 @@
       <c r="D100" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="9">
         <v>1400</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -10032,14 +10050,14 @@
       <c r="AG100" s="5"/>
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
-      <c r="AJ100" s="5"/>
+      <c r="AJ100" s="10"/>
       <c r="AK100" s="5"/>
       <c r="AL100" s="5"/>
       <c r="AM100" s="5"/>
-      <c r="AN100" s="5"/>
-      <c r="AO100" s="5"/>
+      <c r="AN100" s="10"/>
+      <c r="AO100" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="4" t="s">
         <v>41</v>
       </c>
@@ -10134,7 +10152,7 @@
         <v>404</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="4" t="s">
         <v>41</v>
       </c>
@@ -10229,7 +10247,7 @@
         <v>103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="4" t="s">
         <v>41</v>
       </c>
@@ -10242,7 +10260,7 @@
       <c r="D103" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="E103" s="8">
+      <c r="E103" s="9">
         <v>899</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -10277,14 +10295,14 @@
       <c r="AG103" s="5"/>
       <c r="AH103" s="5"/>
       <c r="AI103" s="5"/>
-      <c r="AJ103" s="5"/>
+      <c r="AJ103" s="10"/>
       <c r="AK103" s="5"/>
       <c r="AL103" s="5"/>
       <c r="AM103" s="5"/>
-      <c r="AN103" s="5"/>
-      <c r="AO103" s="5"/>
+      <c r="AN103" s="10"/>
+      <c r="AO103" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="4" t="s">
         <v>41</v>
       </c>
@@ -10297,7 +10315,7 @@
       <c r="D104" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="E104" s="8">
+      <c r="E104" s="9">
         <v>1249</v>
       </c>
       <c r="F104" s="5" t="s">
@@ -10332,14 +10350,14 @@
       <c r="AG104" s="5"/>
       <c r="AH104" s="5"/>
       <c r="AI104" s="5"/>
-      <c r="AJ104" s="5"/>
+      <c r="AJ104" s="10"/>
       <c r="AK104" s="5"/>
       <c r="AL104" s="5"/>
       <c r="AM104" s="5"/>
-      <c r="AN104" s="5"/>
-      <c r="AO104" s="5"/>
+      <c r="AN104" s="10"/>
+      <c r="AO104" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="4" t="s">
         <v>41</v>
       </c>
@@ -10432,7 +10450,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="4" t="s">
         <v>41</v>
       </c>
@@ -10525,7 +10543,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="4" t="s">
         <v>41</v>
       </c>
@@ -10618,7 +10636,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="4" t="s">
         <v>41</v>
       </c>
@@ -10711,7 +10729,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="4" t="s">
         <v>41</v>
       </c>
@@ -10804,7 +10822,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>

--- a/output/Samsung-output.xlsx
+++ b/output/Samsung-output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="458">
   <si>
     <t>mfr website</t>
   </si>
@@ -805,22 +805,49 @@
     <t>LH75QHREBGCXZA</t>
   </si>
   <si>
+    <t>$719.00</t>
+  </si>
+  <si>
+    <t>$229.99</t>
+  </si>
+  <si>
     <t>$399.99</t>
   </si>
   <si>
+    <t>$999.00</t>
+  </si>
+  <si>
     <t>$1,299.00</t>
   </si>
   <si>
+    <t>$1,149.98$1,399.98θ</t>
+  </si>
+  <si>
     <t>$390.00</t>
   </si>
   <si>
-    <t>Domestic Dishwasher. Featuring Stainless steel full console Dishwasher with 12 Place Setting Capacity, 4 Wash Cycles, 5 Options, Silverware Basket, Sanitize Cycle, Delay Start, Leak Sensor, 52 dBA Silent Rating. Control Lock, Height-Adjustable Upper Rack, Digital Water Leakage Sensor, Polypropylene Racking, Silverware Basket. ADA and Energy star compliant.</t>
+    <t>$710.00</t>
+  </si>
+  <si>
+    <t>$530.00</t>
+  </si>
+  <si>
+    <t>$500.00</t>
+  </si>
+  <si>
+    <t>$1,100.00</t>
+  </si>
+  <si>
+    <t>$1 799,99</t>
+  </si>
+  <si>
+    <t>The Samsung stainless steel dishwasher features digital touch controls that make it easy to select functions with a gentle touch. The upper rack is height adjustable, so that it can easily accommodate dishes of various shapes and sizes. The interior door is made of stainless steel that’s more durable and hygienic.</t>
   </si>
   <si>
     <t>23.6-inch LCD computer monitor. Featuring 1920 x 1080 resolution, 60 Hz refresh rate, 16:9 widescreen aspect ratio, tilt capable, VESA mount compatible, USB sound bar ready, Windows 10 Certified. Energy star certified.</t>
   </si>
   <si>
-    <t>24 inch LED computer monitor. Featuring 16:10 aspect ratio, Slim design, Speaker bar ready. Resolution 1920x1200, 4 ms response time, 250 nits brightness, 178/178 degrees viewing angle, PLS display type, Flat curvature, Windows 8.1 compatibility, Eco Saving Plus, Samsung MagicUpscale, Samsung MagicBright, 60 Hz refresh rate, Eye Saver Mode, VESA 100 x 100. Energy star certified.</t>
+    <t>• LED Monitor better image quality than a standard TN-based monitor• An environmentally friendly monitor</t>
   </si>
   <si>
     <t>31.5-inch UHD LED screen computer monitor. Featuring 100 percent sRGB compliant and 99.5 percent Adobe RGB compliant, and features 11 color calibration options. Hand calibrated at the factory with 8 preset color modes, Max Resolution 3840 x 2160 4K, 1.07 billion colors, image aspect ratio: 16:9, 16:9. Input Signal HDMI, DVI-D and DisplayPort. Projector monitor features ConnectShare, Eco Saving, MagicRotation, Mega Dynamic Contrast Ratio, OSD Auto Rotate, PBP, PIP 2.0, Power off timer, USB Super-charging. TFT active matrix. Image Contrast Ratio 1000:1. (4) USB 3.0 downstream, HDMI, (2) DisplayPort and DVI-D. Color Dark silver, Matte black. ENERGY STAR Qualified.</t>
@@ -946,7 +973,7 @@
     <t>Countertop microwave oven. Featuring 19 cubic feet weight capacity, sensor cooking. Ceramic enamel interior. Electronic touch control, 10 power levels including auto defrost. 15.56 inch turntable size. Kitchen timer with reminder end signal. Child safety lock. Stainless Steel color.</t>
   </si>
   <si>
-    <t>Electric range cooktop. Featuring Bluetooth Connected to Hood, Wi-Fi Connectivity, Two Dual Elements (9 inch or 6 inch Rapid Boil and 8 inch or 5 inch), Two Sync Control Elements (7 inch), Single Melt Element (6 inch), 15 Heat Settings, Simmer Control, Melt Mode, 9.5 kW Total Power. Fingerprint Resistant Black Stainless Steel, Touch Control with Magnetic Knob, Kitchen Timer, Hot Surface Indicator Light, Child Safety Lock, Dishwasher Safe Magnetic Knob. ADA compliant.</t>
+    <t>This smart, modern cooktop combines burners to accommodate larger cookware, and lets you choose between removable magnetic knobs or digital touch controls.</t>
   </si>
   <si>
     <t>Domestic with Freezer Refrigerator. Features Stock-up all your food with a huge 28 cu. ft. of storage space. SpaceMax Technology creates more room inside without increasing external dimensions or compromising energy efficiency. Cools the entire fridge evenly from corner to corner. Automatically adjusts its speed in response to cooling demand across 7 levels. As a result, it?s quieter and uses up to 50 percent less power. Avoid smudges with fingerprint resistant stainless steel. Allows you to organize your food, like smaller sized fruits, inside your crisper.</t>
@@ -970,9 +997,6 @@
     <t>24-inch flat panel LED television. Featuring Wide Color Enhancer Plus, Motion Rate 60, smart hub and smart TV, full web browser and S recommendation, DTS Studio Sound. Built-in Wi-Fi, clear motion rate 120, HD 720p, ConnectShare Movie, 2 HDMI connections, 2 USB connections, 1 Component in, and 1 Component in (AV) (1 Shared with Component), includes Universal Remote Control. Energy Star Certified.</t>
   </si>
   <si>
-    <t>32-inch flat panel smart television. Features HD 720p, motion rate 60, wide color enhancer, quad-core processor, full web browser, TV to mobile mirroring, DLNA, wire/wireless TV on - Samsung WOL, WiFi direct, game mode, 2 HDMI connections, 1 USB connections, 802.11n WiFi, 1 component in, 1 component in (shared with AV component input), Dolby digital plus, DTS premium sound 5.1, ECO sensor and includes standard remote control.</t>
-  </si>
-  <si>
     <t>32 inch flat panel television. Featuring Full HD 1080p, Motion Rate 60, Contrast Enhancer, Quad-Core Processor, Smart TV, Dolby Digital Plus, 802.11AC built-in Wi-Fi, Screen Mirroring, ConnectShare Movie. Resolution 1920 x 1080, HyperReal picture engine, Eco Sensor, Anynet+ (HDMI-CEC), Minimal Mold design, includes remote control TM-1240A, VESA 100 x 100.</t>
   </si>
   <si>
@@ -1012,10 +1036,7 @@
     <t>43-inch Class Q60A QLED 4K Smart TV. Features 4K UHD 3840 x 2160 Quantum Dot LED Panel. HDR10 and HDR10+ Support. Motion Xcelerator for Smooth Motion. Built-In Wi-Fi and Ethernet Connectivity. Tizen OS. ALLM for Gaming. Amazon Alexa, Google Assistant, Bixby. Solar Rechargeable Voice Remote Included.</t>
   </si>
   <si>
-    <t>43-inch Class The Frame QLED 4K Smart TV. Features 42.5" Measured Diagonally. 100 percent Color Volume with Quantum Dot. Quantum Processor 4K. Supreme UHD Dimming. Contrast Enhancer. LED Clear Motion. Auto Motion Plus. 20W Sound Output (RMS). Bluetooth 4.2. Wi-Fi Connectivity 5. 360 Camera Support. **No spec sheet available from Supplier. Dimensions from Product Page on Supplier Website has been used. Contact Supplier for more information.</t>
-  </si>
-  <si>
-    <t>Flat Panel 36-43 in. Television. Features 43 inch Diagonal Class 690U Series LED-backlit LCD TV. Smart TV HDR 4K UHD (2160p) 3840 x 2160. It has 1300 Hz Enhanced Refresh Rate. 16:9 Image Aspect Ratio. Contrast enhancer, Digital Clean View, Mega Contrast, PurColor, UHD Mastering Engine Picture Enhancements. Film Mode, Game mode, Natural Mode. It has Eco Sensor. ENERGY STAR Certified.</t>
+    <t>Display modern art, classic art or your own personal photos on your QLED 4K TV with Art Mode.Anti-Reflection with Matte Display enables more TV screen visibility with virtually no light or glare.¹Complement your décor with Music Frame. Frame your favorite printed photo and even style it with a customizable bezel³ to blend into your space.Wirelessly connect your smart devices to Music Frame to play your favorite music, podcasts, and more.Get a more robust audio experience when you sync your Samsung TV speakers and Music Frame. With Q-Symphony, all your speakers work together.⁴</t>
   </si>
   <si>
     <t>• Powerful 4K Crystal UHD TV.• Create lasting impressions with your brilliant Crystal UHD picture quality.</t>
@@ -1090,9 +1111,6 @@
     <t>65 inch flat panel television. Featuring Quantum Processor 4K, Ambient Mode, Quantum HDR 4X, Real Game Enhancer, 100 percent Color Volume with Quantum Dot, Smart TV with Universal Guide, Dolby Digital Plus, Wide Viewing Angle, 802.11AC built-in Wi-Fi, Bluetooth, 4 HDMI Connections, 2 USB Connections. Resolution 3840x2160, Motion Rate 240, Bixby, ConnectShare, Eco Sensor, Mobile to TV - Mirroring, DLNA, FreeSync. VESA 400x400.</t>
   </si>
   <si>
-    <t>65-inch Crystal UHD 4K Pro TV. Features 4K UHD (3840 x 2160) Native Resolution. 8 ms Response Time. 4700:1 Typical Contrast Ratio. USB, 2 x HDMI Inputs. Rated for 16/7 Usage. HDR10 &amp; HDR10+ Compatibility. 250 cd/m2 Brightness. Built-In Wi-Fi, Ethernet, and Bluetooth. Digital Signage-Capable.</t>
-  </si>
-  <si>
     <t>65-inch Flat Panel Television. Features 4K UHD 3840 x 2160 LED Panel. Motion Rate 120 Technology. Wi-Fi, Ethernet, AirPlay 2 Connectivity. Screen Mirroring Technology. 2 x HDMI / 1 x USB. HDR10 and HLG Support. Auto Low Latency Mode for Gaming. Alexa, Google Assistant, Bixby Support. Full Web Browser. Dolby Digital Plus.</t>
   </si>
   <si>
@@ -1105,18 +1123,12 @@
     <t>Flat Panel 50-65 in. Television. Features 55 inch Diagonal Class HT690U. Series LED-backlit LCD TV. Smart TV HDR with 4K UHD (2160p) 3840 x 2160. 120 Motion Rate, 1300 Picture Quality Index Frame Rate and Enhancement Technology. 1300 Hz Enhanced Refresh Rate. Contrast enhancer, Digital Clean View, Mega Contrast, PurColor, UHD Mastering Engine Picture Enhancements. It has Eco Sensor. With additional features of Auto Motion Plus, Samsung Lynk, Soft AP. ENERGY STAR Certified.</t>
   </si>
   <si>
-    <t>55 in. flat panel television. Features: 60Hz E-LED BLU panel, 3840 x 2160 resolution, 250 nits brightness, 4,700:1 contrast ratio, 8ms response time, 16.7 M display colors, 72 color gamut, 16/7 operation hours, HDMI x 2, USB x 1, 1 terrestrial / 1 cable / 0 satellite, optical audio, RJ45, Wi-Fi 5, Bluetooth, 3 sides bezel-less, slim look, quad pod, 200 x 200 mm VESA, USB media player, BizTV app (Android, iOS), on/off timer, autorun signage (app auto-launch), app pre-installation, OTN on/off, security lock, panel button lock, USB port lock and mobile connection menu. Includes remote control, batteries, user manual, power cable and stand.</t>
-  </si>
-  <si>
     <t>55 inch flat panel LED television. Featuring thin Bezel and Ultra-Slim 2.0 inch Chassis, Built-In Tuner, commercial reliability. Resolution 1920x1080, 60Hz D-LED BLU, 178/178 degrees viewing angle, 6ms response time, 350 nit brightness, input RGB Analog D-SUB, DVI-D VIDEO HDMI1,HDMI2, CVBS AUDIO Stereo mini Jack, USB: USB 2.0 x 1, VESA 400 x 400. Energy star certified.</t>
   </si>
   <si>
     <t>55-inch flat panel television. Features: 4K UHD with PurColor, 3840 x 2160 resolution, HDR10+, HLG10 HDR format. Connector types: 2 x USB - side, 3 x HDMI - side, Composite video / component video / audio input - rear, Digital audio output (optical) - side, LAN - rear, Network - rear. **No spec sheet available from Supplier. Dimensions from Product Page on Website has been used. Contact Supplier for more information.</t>
   </si>
   <si>
-    <t>50-inch Flat Panel Television. Features 4K UHD with PurColor for Breathtaking Color. 4K UHD with PurColor for Breathtaking Color. Direct-Lit LED Technology for an Affordable Solution. Samsung LYNK REACH 4.0 Content Management Solution. Samsung LYNK DRM HD Content Decryption. Bezel-less Design Delivers a Sleek, Clean Look.</t>
-  </si>
-  <si>
     <t>50-inch Flat Panel Television. Features: 3,840 x 2,160 resolution, Quantum Dot technology. Immersive 3D surround sound with virtual top channel audio.</t>
   </si>
   <si>
@@ -1144,73 +1156,238 @@
     <t>82-inch Ultra HD Smart QLED TV. Features 3,840 x 2,160 81.5" Measured Diagonally Screen size. 100 percent Color Volume with Quantum Dot. Quantum Processor 4K Lite. 20W Sound Output. Bluetooth 4.2. Game Enhancer is available. Audio Return Channel Support (via HDMI port). Supports USB to Ex-Link Adapter. Color Titan Grey.</t>
   </si>
   <si>
-    <t>75-inch flat panel television. Features: Full HD LED 3,840 x 2,160 resolution, 178 degrees viewing angle and 200 x 200 VESA spec. Wi-Fi 5, Bluetooth. 3 Sides Bezel-less, Slim Look bezel type. Connectivity: HDMI x2, USB x 1. Media Player, BizTV App (Android, iOS), On / Off Timer, Autorun Signage (App Auto-Launch), App Pre-Installation, OTN On / Off, Security Lock, Panel Button Lock, USB Port Lock and Mobile Connection Menu. Remote control, batteries, user manual, power cable included.</t>
-  </si>
-  <si>
-    <t>75 in. flat panel television. Features: Edge-Lit 4K UHD LED, 3840 x 2160 resolution, Cisco Certified compatible display, DVI-D, Display Port 1.2 (1), HDMI 2.0 (2), HDCP2.2, Stereo Mini Jack, DVI, HDMI, USB 2.0 (2), RS232C (In/Out) Thru Stereo Jack, RJ45, IR, UHD Signage Display, Slim &amp; Light, Signage with Built-in MagicInfo S6, SSSP 6.0, emperature Sensor, Pivot Display, Clock Battery (168hrs Clock Keeping), Built in Speaker(10W 2CH), Videowall Daisy Chain (HDCP2.2:4EA, HDCP1.4:7EA), IP5x Rating, Auto Source Switching &amp; Recovery, LFD Home UI, Button Lock, Hot Key Option, Plug&amp;Play (Initial Setting), Smart Signage Platform, Plug and Play. Wi-Fi, bluetooth, built in Speaker (10W + 10W) and Tizen 4.0 (VDLinux).</t>
+    <t>• Odyssey Ark 2nd Gen. with enhanced Multi View supports up to four inputs, including an all-new Display Port.• 55" rotating screen with 1000R curve, featuring 4K UHD resolution with 165Hz and 1ms(GtG)¹ response time and FreeSync™ Premium Pro.• Added KVM Switch for full control of your command center with a single mouse and keyboard.• Cockpit Mode, Eclipse Lighting and Sound Dome Technology for immersive game play.• Exclusive Ark Dial controls all functions including Multi-View, Flex Move Screen, Quick Settings, and Game Bar.• Gaming Hub and Smart TV apps allow instant access to top streaming services.</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>115V / 60Hz / 5.0A</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>16.1</t>
+  </si>
+  <si>
     <t>19.404</t>
   </si>
   <si>
     <t>247</t>
   </si>
   <si>
+    <t>12.789</t>
+  </si>
+  <si>
+    <t>127.6</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
     <t>9.92</t>
   </si>
   <si>
+    <t>35.7</t>
+  </si>
+  <si>
     <t>238</t>
   </si>
   <si>
+    <t>9.3</t>
+  </si>
+  <si>
     <t>8.1</t>
   </si>
   <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>30.4</t>
+  </si>
+  <si>
+    <t>125.9</t>
+  </si>
+  <si>
+    <t>23.7</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>6.5</t>
   </si>
   <si>
+    <t>3.1</t>
+  </si>
+  <si>
     <t>59.6</t>
   </si>
   <si>
+    <t>59.9</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>14.1</t>
+  </si>
+  <si>
     <t>15.13</t>
   </si>
   <si>
+    <t>17.3</t>
+  </si>
+  <si>
     <t>558.9</t>
   </si>
   <si>
+    <t>830.3</t>
+  </si>
+  <si>
+    <t>707.2</t>
+  </si>
+  <si>
+    <t>644.2</t>
+  </si>
+  <si>
+    <t>958.2</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>22.9</t>
+  </si>
+  <si>
+    <t>21.8</t>
+  </si>
+  <si>
     <t>24.24</t>
   </si>
   <si>
+    <t>28.9</t>
+  </si>
+  <si>
     <t>963.9</t>
   </si>
   <si>
+    <t>1449.4</t>
+  </si>
+  <si>
+    <t>1230.5</t>
+  </si>
+  <si>
+    <t>1116.8</t>
+  </si>
+  <si>
+    <t>1673.2</t>
+  </si>
+  <si>
+    <t>46.3</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/b2b/product/ls/24/e6/ls24e65udwgza/MON-S24E650DWDSHT-DEC15TFinal12-17-15.pdf</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/home-appliances/cooktops-and-hoods/gas/pd/03202018/NZ30K7570RS.pdf</t>
+  </si>
+  <si>
     <t>https://image-us.samsung.com/SamsungUS/home/home-appliances/refrigerators/RS22T5201SR_V7.pdf</t>
   </si>
   <si>
     <t>https://image-us.samsung.com/SamsungUS/samsungbusiness/pdfs/datasheet/DIGSIG-BETHSERIES-PROTVDSHT-MAR20T_C4.pdf</t>
   </si>
   <si>
+    <t>https://www.samsung.com/us/home-appliances/dishwashers/rotary/front-control-52-dba-ada-dishwasher-in-stainless-steel-dw60r2014us-aa</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/computing/monitors/flat/se650-series-24-ls24e65udwg-za</t>
+  </si>
+  <si>
     <t>https://www.samsung.com/us/computing/monitors/curved/lc27fg70fqnxza-lc27fg70fqnxza</t>
   </si>
   <si>
+    <t>https://www.samsung.com/us/home-appliances/cooktops-and-hoods/electric-cooktops/30--built-in-electric-cooktop-with-rapid-boil-nz30k7570rs-aa</t>
+  </si>
+  <si>
     <t>https://www.samsung.com/us/home-appliances/refrigerators/side-by-side/22-cu-ft-counter-depth-side-by-side-refrigerator-in-stainless-steel-rs22t5201sr-aa</t>
   </si>
   <si>
+    <t>https://www.samsung.com/us/televisions-home-theater/tvs/hd-tvs/32-class-m4500-hd-tv-un32m4500bfxza</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/televisions-home-theater/tvs/the-frame/43-class-the-frame-qled-4k-with-music-frame-bndl-1719518533681</t>
+  </si>
+  <si>
     <t>https://www.samsung.com/us/displays/pro-tv/be-series/43-bet-h-series-crystal-uhd-4k-pro-tv-lh43bethlgfxgo</t>
   </si>
   <si>
+    <t>https://www.samsung.com/us/displays/pro-tv/be-series/65-bet-h-series-crystal-uhd-4k-pro-tv-lh65bethlgfxgo</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/displays/pro-tv/be-series/55-bet-h-series-crystal-uhd-4k-pro-tv-lh55bethlgfxgo</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/displays/pro-tv/be-series/50-bet-h-series-crystal-uhd-4k-pro-tv-lh50bethlgfxgo</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/displays/pro-tv/be-series/75-bet-h-series-crystal-uhd-4k-pro-tv-lh75bethlgfxgo</t>
+  </si>
+  <si>
+    <t>https://www.samsung.com/us/computing/monitors/gaming/55-odyssey-ark-2nd-gen-4k-uhd-165hz-1ms-quantum-mini-led-curved-gaming-screen-ls55cg970nnxgo</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/home-appliances/dishwashers/rotary/dw60r2014usaa/gallery-image/DW60R2014US_01_Silver_scom.jpg?product-details-thumbnail-png</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/pim/business/products/default/computing/monitors/650-series/se650-series-24-ls24e65udwg-za_business_default.jpg?product-details-thumbnail-png</t>
+  </si>
+  <si>
     <t>https://image-us.samsung.com/SamsungUS/home/computing/monitors/gaming/04162024/LS32BG652ENXGO.jpg?product-details-thumbnail-png</t>
   </si>
   <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/home-appliances/cooktops-and-hoods/hoods/072619-gallery-updates/NZ30K7570RS.jpg?product-details-thumbnail-png</t>
+  </si>
+  <si>
     <t>https://image-us.samsung.com/SamsungUS/home/home-appliances/refrigerators/02102020/HABSR-RS22T5201SR_SIlver_1600x1200_1.jpg?product-details-thumbnail-png</t>
   </si>
   <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/television-home-theater/tvs/11072024/UN32M4500BFXZA-S_COM_Version_1_V02.jpg?product-details-thumbnail-png</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/television-home-theater/tvs/the-frame/09182024/GQ65LS03DAFXZA_HW-LS60D_bundle_85-B.jpg?product-details-jpg</t>
+  </si>
+  <si>
     <t>https://image-us.samsung.com/SamsungUS/samsungbusiness/displays/pro-tv/be-series/43-bet-h-series-crystal-uhd-4k-pro-tv-lh43bethlgfxgo/gallery/LH75BETHLGUXEN_001_Front.jpg?product-details-jpg</t>
+  </si>
+  <si>
+    <t>https://image-us.samsung.com/SamsungUS/home/computing/monitors/gaming/04162024/LS55CG970NNXGO_V2.jpg?product-details-jpg</t>
   </si>
 </sst>
 </file>
@@ -1725,11 +1902,83 @@
       <c r="D2" t="s">
         <v>155</v>
       </c>
-      <c r="E2">
-        <v>799</v>
+      <c r="E2" t="s">
+        <v>263</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>275</v>
+      </c>
+      <c r="G2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" t="s">
+        <v>384</v>
+      </c>
+      <c r="K2" t="s">
+        <v>385</v>
+      </c>
+      <c r="M2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" t="s">
+        <v>386</v>
+      </c>
+      <c r="R2" t="s">
+        <v>386</v>
+      </c>
+      <c r="S2" t="s">
+        <v>386</v>
+      </c>
+      <c r="T2" t="s">
+        <v>386</v>
+      </c>
+      <c r="U2" t="s">
+        <v>386</v>
+      </c>
+      <c r="V2" t="s">
+        <v>386</v>
+      </c>
+      <c r="W2" t="s">
+        <v>386</v>
+      </c>
+      <c r="X2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -1749,7 +1998,7 @@
         <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1765,11 +2014,74 @@
       <c r="D4" t="s">
         <v>157</v>
       </c>
-      <c r="E4">
-        <v>290</v>
+      <c r="E4" t="s">
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>277</v>
+      </c>
+      <c r="M4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N4" t="s">
+        <v>386</v>
+      </c>
+      <c r="R4" t="s">
+        <v>386</v>
+      </c>
+      <c r="S4" t="s">
+        <v>386</v>
+      </c>
+      <c r="T4" t="s">
+        <v>386</v>
+      </c>
+      <c r="U4" t="s">
+        <v>386</v>
+      </c>
+      <c r="V4" t="s">
+        <v>386</v>
+      </c>
+      <c r="W4" t="s">
+        <v>386</v>
+      </c>
+      <c r="X4" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1789,7 +2101,7 @@
         <v>1766</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1806,70 +2118,70 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="R6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="S6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="T6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="U6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="V6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="W6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="X6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Y6" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Z6" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="AA6" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AB6" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="AC6" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="AD6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AE6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AF6" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1889,7 +2201,7 @@
         <v>563</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1909,7 +2221,7 @@
         <v>625</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1929,7 +2241,7 @@
         <v>686</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1949,7 +2261,7 @@
         <v>580</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1969,7 +2281,7 @@
         <v>549</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1989,7 +2301,7 @@
         <v>1000</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2009,7 +2321,7 @@
         <v>855</v>
       </c>
       <c r="F13" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2029,7 +2341,7 @@
         <v>799</v>
       </c>
       <c r="F14" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2049,7 +2361,7 @@
         <v>930</v>
       </c>
       <c r="F15" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2069,7 +2381,7 @@
         <v>825</v>
       </c>
       <c r="F16" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2089,7 +2401,7 @@
         <v>845</v>
       </c>
       <c r="F17" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2109,7 +2421,7 @@
         <v>725</v>
       </c>
       <c r="F18" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2129,7 +2441,7 @@
         <v>899</v>
       </c>
       <c r="F19" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2149,7 +2461,7 @@
         <v>1100</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2169,7 +2481,7 @@
         <v>1499</v>
       </c>
       <c r="F21" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2189,7 +2501,7 @@
         <v>1303</v>
       </c>
       <c r="F22" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2209,7 +2521,7 @@
         <v>1540</v>
       </c>
       <c r="F23" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2229,7 +2541,7 @@
         <v>1099</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2249,7 +2561,7 @@
         <v>1688</v>
       </c>
       <c r="F25" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2269,7 +2581,7 @@
         <v>2222</v>
       </c>
       <c r="F26" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2289,7 +2601,7 @@
         <v>1903</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2309,7 +2621,7 @@
         <v>1295</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2329,7 +2641,7 @@
         <v>1847</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2349,7 +2661,7 @@
         <v>3805</v>
       </c>
       <c r="F30" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2369,7 +2681,7 @@
         <v>1399</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2389,10 +2701,10 @@
         <v>2607</v>
       </c>
       <c r="F32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2409,10 +2721,10 @@
         <v>3999</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2429,10 +2741,10 @@
         <v>1049</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -2449,10 +2761,10 @@
         <v>2354</v>
       </c>
       <c r="F35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -2469,10 +2781,10 @@
         <v>2700</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -2489,10 +2801,10 @@
         <v>4490</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2509,10 +2821,10 @@
         <v>5500</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -2529,10 +2841,10 @@
         <v>3475</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -2549,10 +2861,10 @@
         <v>7279</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -2569,10 +2881,10 @@
         <v>19999</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2589,10 +2901,10 @@
         <v>1500</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -2609,10 +2921,10 @@
         <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
@@ -2629,10 +2941,10 @@
         <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" s="2" t="s">
         <v>41</v>
       </c>
@@ -2649,10 +2961,10 @@
         <v>215</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
@@ -2665,14 +2977,74 @@
       <c r="D46" t="s">
         <v>197</v>
       </c>
-      <c r="E46">
-        <v>1849</v>
+      <c r="E46" t="s">
+        <v>266</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>319</v>
+      </c>
+      <c r="M46" t="s">
+        <v>386</v>
+      </c>
+      <c r="N46" t="s">
+        <v>386</v>
+      </c>
+      <c r="R46" t="s">
+        <v>386</v>
+      </c>
+      <c r="S46" t="s">
+        <v>386</v>
+      </c>
+      <c r="T46" t="s">
+        <v>386</v>
+      </c>
+      <c r="U46" t="s">
+        <v>386</v>
+      </c>
+      <c r="V46" t="s">
+        <v>386</v>
+      </c>
+      <c r="W46" t="s">
+        <v>386</v>
+      </c>
+      <c r="X46" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA46">
+        <v>52.75</v>
+      </c>
+      <c r="AB46">
+        <v>5.1</v>
+      </c>
+      <c r="AC46">
+        <v>30</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AN46" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -2689,10 +3061,10 @@
         <v>2100</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" s="2" t="s">
         <v>41</v>
       </c>
@@ -2709,7 +3081,7 @@
         <v>3499</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:41">
@@ -2729,7 +3101,7 @@
         <v>3149</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:41">
@@ -2749,7 +3121,7 @@
         <v>1999</v>
       </c>
       <c r="F50" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:41">
@@ -2769,7 +3141,7 @@
         <v>2099</v>
       </c>
       <c r="F51" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -2786,46 +3158,46 @@
         <v>202</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F52" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="G52" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="R52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="S52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="T52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="U52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="V52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="W52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="X52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Y52" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="Z52" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="AA52">
         <v>35.625</v>
@@ -2837,25 +3209,25 @@
         <v>44.625</v>
       </c>
       <c r="AD52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AE52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AF52" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="AN52" s="2" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="AO52" s="2" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -2875,7 +3247,7 @@
         <v>230</v>
       </c>
       <c r="F53" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:41">
@@ -2891,11 +3263,65 @@
       <c r="D54" t="s">
         <v>204</v>
       </c>
-      <c r="E54">
-        <v>200</v>
-      </c>
-      <c r="F54" t="s">
-        <v>318</v>
+      <c r="M54" t="s">
+        <v>386</v>
+      </c>
+      <c r="N54" t="s">
+        <v>386</v>
+      </c>
+      <c r="R54" t="s">
+        <v>386</v>
+      </c>
+      <c r="S54" t="s">
+        <v>386</v>
+      </c>
+      <c r="T54" t="s">
+        <v>386</v>
+      </c>
+      <c r="U54" t="s">
+        <v>386</v>
+      </c>
+      <c r="V54" t="s">
+        <v>386</v>
+      </c>
+      <c r="W54" t="s">
+        <v>386</v>
+      </c>
+      <c r="X54" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>398</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>408</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO54" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:41">
@@ -2915,7 +3341,7 @@
         <v>230</v>
       </c>
       <c r="F55" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -2935,7 +3361,7 @@
         <v>500</v>
       </c>
       <c r="F56" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:41">
@@ -2955,7 +3381,7 @@
         <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -2975,7 +3401,7 @@
         <v>415</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -2995,7 +3421,7 @@
         <v>480</v>
       </c>
       <c r="F59" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -3015,7 +3441,7 @@
         <v>800</v>
       </c>
       <c r="F60" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -3035,7 +3461,7 @@
         <v>800</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -3055,7 +3481,7 @@
         <v>489</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:41">
@@ -3075,7 +3501,7 @@
         <v>500</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:41">
@@ -3095,7 +3521,7 @@
         <v>278</v>
       </c>
       <c r="F64" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -3115,7 +3541,7 @@
         <v>330</v>
       </c>
       <c r="F65" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -3135,7 +3561,7 @@
         <v>380</v>
       </c>
       <c r="F66" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -3155,7 +3581,7 @@
         <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -3171,11 +3597,53 @@
       <c r="D68" t="s">
         <v>218</v>
       </c>
-      <c r="E68">
-        <v>1000</v>
+      <c r="E68" t="s">
+        <v>268</v>
       </c>
       <c r="F68" t="s">
-        <v>332</v>
+        <v>340</v>
+      </c>
+      <c r="M68" t="s">
+        <v>386</v>
+      </c>
+      <c r="N68" t="s">
+        <v>386</v>
+      </c>
+      <c r="R68" t="s">
+        <v>386</v>
+      </c>
+      <c r="S68" t="s">
+        <v>386</v>
+      </c>
+      <c r="T68" t="s">
+        <v>386</v>
+      </c>
+      <c r="U68" t="s">
+        <v>386</v>
+      </c>
+      <c r="V68" t="s">
+        <v>386</v>
+      </c>
+      <c r="W68" t="s">
+        <v>386</v>
+      </c>
+      <c r="X68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ68" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AN68" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO68" s="2" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -3191,11 +3659,71 @@
       <c r="D69" t="s">
         <v>219</v>
       </c>
-      <c r="E69">
-        <v>712</v>
+      <c r="E69" t="s">
+        <v>269</v>
       </c>
       <c r="F69" t="s">
-        <v>333</v>
+        <v>341</v>
+      </c>
+      <c r="M69" t="s">
+        <v>386</v>
+      </c>
+      <c r="N69" t="s">
+        <v>386</v>
+      </c>
+      <c r="R69" t="s">
+        <v>386</v>
+      </c>
+      <c r="S69" t="s">
+        <v>386</v>
+      </c>
+      <c r="T69" t="s">
+        <v>386</v>
+      </c>
+      <c r="U69" t="s">
+        <v>386</v>
+      </c>
+      <c r="V69" t="s">
+        <v>386</v>
+      </c>
+      <c r="W69" t="s">
+        <v>386</v>
+      </c>
+      <c r="X69" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG69" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ69" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AN69" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO69" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:41">
@@ -3212,70 +3740,70 @@
         <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F70" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="R70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="S70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="T70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="U70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="V70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="W70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="X70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Z70" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="AA70" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="AB70" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="AC70" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="AD70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AE70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AF70" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="AN70" s="2" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="AO70" s="2" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -3295,7 +3823,7 @@
         <v>624</v>
       </c>
       <c r="F71" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:41">
@@ -3315,7 +3843,7 @@
         <v>595</v>
       </c>
       <c r="F72" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -3335,7 +3863,7 @@
         <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -3355,7 +3883,7 @@
         <v>498</v>
       </c>
       <c r="F74" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:41">
@@ -3375,7 +3903,7 @@
         <v>1000</v>
       </c>
       <c r="F75" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:41">
@@ -3395,7 +3923,7 @@
         <v>800</v>
       </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:41">
@@ -3415,7 +3943,7 @@
         <v>2799</v>
       </c>
       <c r="F77" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:41">
@@ -3435,7 +3963,7 @@
         <v>720</v>
       </c>
       <c r="F78" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:41">
@@ -3455,7 +3983,7 @@
         <v>1000</v>
       </c>
       <c r="F79" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:41">
@@ -3475,10 +4003,10 @@
         <v>500</v>
       </c>
       <c r="F80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41">
       <c r="A81" s="2" t="s">
         <v>41</v>
       </c>
@@ -3495,10 +4023,10 @@
         <v>650</v>
       </c>
       <c r="F81" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
@@ -3515,10 +4043,10 @@
         <v>400</v>
       </c>
       <c r="F82" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41">
       <c r="A83" s="2" t="s">
         <v>41</v>
       </c>
@@ -3535,10 +4063,10 @@
         <v>1500</v>
       </c>
       <c r="F83" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41">
       <c r="A84" s="2" t="s">
         <v>41</v>
       </c>
@@ -3555,10 +4083,10 @@
         <v>380</v>
       </c>
       <c r="F84" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41">
       <c r="A85" s="2" t="s">
         <v>41</v>
       </c>
@@ -3575,10 +4103,10 @@
         <v>500</v>
       </c>
       <c r="F85" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41">
       <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
@@ -3595,10 +4123,10 @@
         <v>1198</v>
       </c>
       <c r="F86" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
       <c r="A87" s="2" t="s">
         <v>41</v>
       </c>
@@ -3615,10 +4143,10 @@
         <v>500</v>
       </c>
       <c r="F87" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
       <c r="A88" s="2" t="s">
         <v>41</v>
       </c>
@@ -3635,10 +4163,10 @@
         <v>550</v>
       </c>
       <c r="F88" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
       <c r="A89" s="2" t="s">
         <v>41</v>
       </c>
@@ -3655,10 +4183,10 @@
         <v>1698</v>
       </c>
       <c r="F89" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
       <c r="A90" s="2" t="s">
         <v>41</v>
       </c>
@@ -3675,10 +4203,10 @@
         <v>480</v>
       </c>
       <c r="F90" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
       <c r="A91" s="2" t="s">
         <v>41</v>
       </c>
@@ -3695,10 +4223,10 @@
         <v>3987</v>
       </c>
       <c r="F91" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
       <c r="A92" s="2" t="s">
         <v>41</v>
       </c>
@@ -3715,10 +4243,10 @@
         <v>1800</v>
       </c>
       <c r="F92" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
       <c r="A93" s="2" t="s">
         <v>41</v>
       </c>
@@ -3735,10 +4263,10 @@
         <v>1800</v>
       </c>
       <c r="F93" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
       <c r="A94" s="2" t="s">
         <v>41</v>
       </c>
@@ -3751,14 +4279,74 @@
       <c r="D94" t="s">
         <v>243</v>
       </c>
-      <c r="E94">
-        <v>713</v>
+      <c r="E94" t="s">
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>341</v>
+      </c>
+      <c r="M94" t="s">
+        <v>386</v>
+      </c>
+      <c r="N94" t="s">
+        <v>386</v>
+      </c>
+      <c r="R94" t="s">
+        <v>386</v>
+      </c>
+      <c r="S94" t="s">
+        <v>386</v>
+      </c>
+      <c r="T94" t="s">
+        <v>386</v>
+      </c>
+      <c r="U94" t="s">
+        <v>386</v>
+      </c>
+      <c r="V94" t="s">
+        <v>386</v>
+      </c>
+      <c r="W94" t="s">
+        <v>386</v>
+      </c>
+      <c r="X94" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG94" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ94" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AN94" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO94" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
       <c r="A95" s="2" t="s">
         <v>41</v>
       </c>
@@ -3775,10 +4363,10 @@
         <v>500</v>
       </c>
       <c r="F95" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
@@ -3795,10 +4383,10 @@
         <v>650</v>
       </c>
       <c r="F96" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -3815,10 +4403,10 @@
         <v>876</v>
       </c>
       <c r="F97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -3835,10 +4423,10 @@
         <v>1226</v>
       </c>
       <c r="F98" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41">
       <c r="A99" s="2" t="s">
         <v>41</v>
       </c>
@@ -3851,14 +4439,74 @@
       <c r="D99" t="s">
         <v>248</v>
       </c>
-      <c r="E99">
-        <v>531</v>
+      <c r="E99" t="s">
+        <v>271</v>
       </c>
       <c r="F99" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>341</v>
+      </c>
+      <c r="M99" t="s">
+        <v>386</v>
+      </c>
+      <c r="N99" t="s">
+        <v>386</v>
+      </c>
+      <c r="R99" t="s">
+        <v>386</v>
+      </c>
+      <c r="S99" t="s">
+        <v>386</v>
+      </c>
+      <c r="T99" t="s">
+        <v>386</v>
+      </c>
+      <c r="U99" t="s">
+        <v>386</v>
+      </c>
+      <c r="V99" t="s">
+        <v>386</v>
+      </c>
+      <c r="W99" t="s">
+        <v>386</v>
+      </c>
+      <c r="X99" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG99" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ99" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN99" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO99" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41">
       <c r="A100" s="2" t="s">
         <v>41</v>
       </c>
@@ -3875,10 +4523,10 @@
         <v>1400</v>
       </c>
       <c r="F100" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41">
       <c r="A101" s="2" t="s">
         <v>41</v>
       </c>
@@ -3895,10 +4543,10 @@
         <v>946</v>
       </c>
       <c r="F101" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41">
       <c r="A102" s="2" t="s">
         <v>41</v>
       </c>
@@ -3911,14 +4559,74 @@
       <c r="D102" t="s">
         <v>251</v>
       </c>
-      <c r="E102">
-        <v>569</v>
+      <c r="E102" t="s">
+        <v>272</v>
       </c>
       <c r="F102" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>341</v>
+      </c>
+      <c r="M102" t="s">
+        <v>386</v>
+      </c>
+      <c r="N102" t="s">
+        <v>386</v>
+      </c>
+      <c r="R102" t="s">
+        <v>386</v>
+      </c>
+      <c r="S102" t="s">
+        <v>386</v>
+      </c>
+      <c r="T102" t="s">
+        <v>386</v>
+      </c>
+      <c r="U102" t="s">
+        <v>386</v>
+      </c>
+      <c r="V102" t="s">
+        <v>386</v>
+      </c>
+      <c r="W102" t="s">
+        <v>386</v>
+      </c>
+      <c r="X102" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>402</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG102" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ102" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN102" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO102" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
       <c r="A103" s="2" t="s">
         <v>41</v>
       </c>
@@ -3935,10 +4643,10 @@
         <v>899</v>
       </c>
       <c r="F103" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -3955,10 +4663,10 @@
         <v>1249</v>
       </c>
       <c r="F104" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
       <c r="A105" s="2" t="s">
         <v>41</v>
       </c>
@@ -3975,10 +4683,10 @@
         <v>1700</v>
       </c>
       <c r="F105" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41">
       <c r="A106" s="2" t="s">
         <v>41</v>
       </c>
@@ -3995,10 +4703,10 @@
         <v>2300</v>
       </c>
       <c r="F106" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:41">
       <c r="A107" s="2" t="s">
         <v>41</v>
       </c>
@@ -4015,10 +4723,10 @@
         <v>3300</v>
       </c>
       <c r="F107" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41">
       <c r="A108" s="2" t="s">
         <v>41</v>
       </c>
@@ -4035,10 +4743,10 @@
         <v>1400</v>
       </c>
       <c r="F108" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41">
       <c r="A109" s="2" t="s">
         <v>41</v>
       </c>
@@ -4055,10 +4763,10 @@
         <v>950</v>
       </c>
       <c r="F109" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41">
       <c r="A110" s="2" t="s">
         <v>41</v>
       </c>
@@ -4075,10 +4783,10 @@
         <v>5300</v>
       </c>
       <c r="F110" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41">
       <c r="A111" s="2" t="s">
         <v>41</v>
       </c>
@@ -4095,10 +4803,10 @@
         <v>1398</v>
       </c>
       <c r="F111" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41">
       <c r="A112" s="2" t="s">
         <v>41</v>
       </c>
@@ -4111,14 +4819,74 @@
       <c r="D112" t="s">
         <v>261</v>
       </c>
-      <c r="E112">
-        <v>1088</v>
+      <c r="E112" t="s">
+        <v>273</v>
       </c>
       <c r="F112" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>341</v>
+      </c>
+      <c r="M112" t="s">
+        <v>386</v>
+      </c>
+      <c r="N112" t="s">
+        <v>386</v>
+      </c>
+      <c r="R112" t="s">
+        <v>386</v>
+      </c>
+      <c r="S112" t="s">
+        <v>386</v>
+      </c>
+      <c r="T112" t="s">
+        <v>386</v>
+      </c>
+      <c r="U112" t="s">
+        <v>386</v>
+      </c>
+      <c r="V112" t="s">
+        <v>386</v>
+      </c>
+      <c r="W112" t="s">
+        <v>386</v>
+      </c>
+      <c r="X112" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC112" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE112" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF112" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG112" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AJ112" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AN112" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO112" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="113" spans="1:41">
       <c r="A113" s="2" t="s">
         <v>41</v>
       </c>
@@ -4131,138 +4899,238 @@
       <c r="D113" t="s">
         <v>262</v>
       </c>
-      <c r="E113">
-        <v>3275</v>
+      <c r="E113" t="s">
+        <v>274</v>
       </c>
       <c r="F113" t="s">
-        <v>377</v>
+        <v>380</v>
+      </c>
+      <c r="M113" t="s">
+        <v>386</v>
+      </c>
+      <c r="N113" t="s">
+        <v>386</v>
+      </c>
+      <c r="R113" t="s">
+        <v>386</v>
+      </c>
+      <c r="S113" t="s">
+        <v>386</v>
+      </c>
+      <c r="T113" t="s">
+        <v>386</v>
+      </c>
+      <c r="U113" t="s">
+        <v>386</v>
+      </c>
+      <c r="V113" t="s">
+        <v>386</v>
+      </c>
+      <c r="W113" t="s">
+        <v>386</v>
+      </c>
+      <c r="X113" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>386</v>
+      </c>
+      <c r="AF113" t="s">
+        <v>386</v>
+      </c>
+      <c r="AJ113" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AN113" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="AO113" s="2" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="AJ6" r:id="rId6"/>
-    <hyperlink ref="AN6" r:id="rId7"/>
-    <hyperlink ref="AO6" r:id="rId8"/>
-    <hyperlink ref="A7" r:id="rId9"/>
-    <hyperlink ref="A8" r:id="rId10"/>
-    <hyperlink ref="A9" r:id="rId11"/>
-    <hyperlink ref="A10" r:id="rId12"/>
-    <hyperlink ref="A11" r:id="rId13"/>
-    <hyperlink ref="A12" r:id="rId14"/>
-    <hyperlink ref="A13" r:id="rId15"/>
-    <hyperlink ref="A14" r:id="rId16"/>
-    <hyperlink ref="A15" r:id="rId17"/>
-    <hyperlink ref="A16" r:id="rId18"/>
-    <hyperlink ref="A17" r:id="rId19"/>
-    <hyperlink ref="A18" r:id="rId20"/>
-    <hyperlink ref="A19" r:id="rId21"/>
-    <hyperlink ref="A20" r:id="rId22"/>
-    <hyperlink ref="A21" r:id="rId23"/>
-    <hyperlink ref="A22" r:id="rId24"/>
-    <hyperlink ref="A23" r:id="rId25"/>
-    <hyperlink ref="A24" r:id="rId26"/>
-    <hyperlink ref="A25" r:id="rId27"/>
-    <hyperlink ref="A26" r:id="rId28"/>
-    <hyperlink ref="A27" r:id="rId29"/>
-    <hyperlink ref="A28" r:id="rId30"/>
-    <hyperlink ref="A29" r:id="rId31"/>
-    <hyperlink ref="A30" r:id="rId32"/>
-    <hyperlink ref="A31" r:id="rId33"/>
-    <hyperlink ref="A32" r:id="rId34"/>
-    <hyperlink ref="A33" r:id="rId35"/>
-    <hyperlink ref="A34" r:id="rId36"/>
-    <hyperlink ref="A35" r:id="rId37"/>
-    <hyperlink ref="A36" r:id="rId38"/>
-    <hyperlink ref="A37" r:id="rId39"/>
-    <hyperlink ref="A38" r:id="rId40"/>
-    <hyperlink ref="A39" r:id="rId41"/>
-    <hyperlink ref="A40" r:id="rId42"/>
-    <hyperlink ref="A41" r:id="rId43"/>
-    <hyperlink ref="A42" r:id="rId44"/>
-    <hyperlink ref="A43" r:id="rId45"/>
-    <hyperlink ref="A44" r:id="rId46"/>
-    <hyperlink ref="A45" r:id="rId47"/>
-    <hyperlink ref="A46" r:id="rId48"/>
-    <hyperlink ref="A47" r:id="rId49"/>
-    <hyperlink ref="A48" r:id="rId50"/>
-    <hyperlink ref="A49" r:id="rId51"/>
-    <hyperlink ref="A50" r:id="rId52"/>
-    <hyperlink ref="A51" r:id="rId53"/>
-    <hyperlink ref="A52" r:id="rId54"/>
-    <hyperlink ref="AG52" r:id="rId55"/>
-    <hyperlink ref="AJ52" r:id="rId56"/>
-    <hyperlink ref="AN52" r:id="rId57"/>
-    <hyperlink ref="AO52" r:id="rId58"/>
-    <hyperlink ref="A53" r:id="rId59"/>
-    <hyperlink ref="A54" r:id="rId60"/>
-    <hyperlink ref="A55" r:id="rId61"/>
-    <hyperlink ref="A56" r:id="rId62"/>
-    <hyperlink ref="A57" r:id="rId63"/>
-    <hyperlink ref="A58" r:id="rId64"/>
-    <hyperlink ref="A59" r:id="rId65"/>
-    <hyperlink ref="A60" r:id="rId66"/>
-    <hyperlink ref="A61" r:id="rId67"/>
-    <hyperlink ref="A62" r:id="rId68"/>
-    <hyperlink ref="A63" r:id="rId69"/>
-    <hyperlink ref="A64" r:id="rId70"/>
-    <hyperlink ref="A65" r:id="rId71"/>
-    <hyperlink ref="A66" r:id="rId72"/>
-    <hyperlink ref="A67" r:id="rId73"/>
-    <hyperlink ref="A68" r:id="rId74"/>
-    <hyperlink ref="A69" r:id="rId75"/>
-    <hyperlink ref="A70" r:id="rId76"/>
-    <hyperlink ref="AG70" r:id="rId77"/>
-    <hyperlink ref="AJ70" r:id="rId78"/>
-    <hyperlink ref="AN70" r:id="rId79"/>
-    <hyperlink ref="AO70" r:id="rId80"/>
-    <hyperlink ref="A71" r:id="rId81"/>
-    <hyperlink ref="A72" r:id="rId82"/>
-    <hyperlink ref="A73" r:id="rId83"/>
-    <hyperlink ref="A74" r:id="rId84"/>
-    <hyperlink ref="A75" r:id="rId85"/>
-    <hyperlink ref="A76" r:id="rId86"/>
-    <hyperlink ref="A77" r:id="rId87"/>
-    <hyperlink ref="A78" r:id="rId88"/>
-    <hyperlink ref="A79" r:id="rId89"/>
-    <hyperlink ref="A80" r:id="rId90"/>
-    <hyperlink ref="A81" r:id="rId91"/>
-    <hyperlink ref="A82" r:id="rId92"/>
-    <hyperlink ref="A83" r:id="rId93"/>
-    <hyperlink ref="A84" r:id="rId94"/>
-    <hyperlink ref="A85" r:id="rId95"/>
-    <hyperlink ref="A86" r:id="rId96"/>
-    <hyperlink ref="A87" r:id="rId97"/>
-    <hyperlink ref="A88" r:id="rId98"/>
-    <hyperlink ref="A89" r:id="rId99"/>
-    <hyperlink ref="A90" r:id="rId100"/>
-    <hyperlink ref="A91" r:id="rId101"/>
-    <hyperlink ref="A92" r:id="rId102"/>
-    <hyperlink ref="A93" r:id="rId103"/>
-    <hyperlink ref="A94" r:id="rId104"/>
-    <hyperlink ref="A95" r:id="rId105"/>
-    <hyperlink ref="A96" r:id="rId106"/>
-    <hyperlink ref="A97" r:id="rId107"/>
-    <hyperlink ref="A98" r:id="rId108"/>
-    <hyperlink ref="A99" r:id="rId109"/>
-    <hyperlink ref="A100" r:id="rId110"/>
-    <hyperlink ref="A101" r:id="rId111"/>
-    <hyperlink ref="A102" r:id="rId112"/>
-    <hyperlink ref="A103" r:id="rId113"/>
-    <hyperlink ref="A104" r:id="rId114"/>
-    <hyperlink ref="A105" r:id="rId115"/>
-    <hyperlink ref="A106" r:id="rId116"/>
-    <hyperlink ref="A107" r:id="rId117"/>
-    <hyperlink ref="A108" r:id="rId118"/>
-    <hyperlink ref="A109" r:id="rId119"/>
-    <hyperlink ref="A110" r:id="rId120"/>
-    <hyperlink ref="A111" r:id="rId121"/>
-    <hyperlink ref="A112" r:id="rId122"/>
-    <hyperlink ref="A113" r:id="rId123"/>
+    <hyperlink ref="AJ2" r:id="rId2"/>
+    <hyperlink ref="AN2" r:id="rId3"/>
+    <hyperlink ref="AO2" r:id="rId4"/>
+    <hyperlink ref="A3" r:id="rId5"/>
+    <hyperlink ref="A4" r:id="rId6"/>
+    <hyperlink ref="AG4" r:id="rId7"/>
+    <hyperlink ref="AJ4" r:id="rId8"/>
+    <hyperlink ref="AN4" r:id="rId9"/>
+    <hyperlink ref="AO4" r:id="rId10"/>
+    <hyperlink ref="A5" r:id="rId11"/>
+    <hyperlink ref="A6" r:id="rId12"/>
+    <hyperlink ref="AJ6" r:id="rId13"/>
+    <hyperlink ref="AN6" r:id="rId14"/>
+    <hyperlink ref="AO6" r:id="rId15"/>
+    <hyperlink ref="A7" r:id="rId16"/>
+    <hyperlink ref="A8" r:id="rId17"/>
+    <hyperlink ref="A9" r:id="rId18"/>
+    <hyperlink ref="A10" r:id="rId19"/>
+    <hyperlink ref="A11" r:id="rId20"/>
+    <hyperlink ref="A12" r:id="rId21"/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A14" r:id="rId23"/>
+    <hyperlink ref="A15" r:id="rId24"/>
+    <hyperlink ref="A16" r:id="rId25"/>
+    <hyperlink ref="A17" r:id="rId26"/>
+    <hyperlink ref="A18" r:id="rId27"/>
+    <hyperlink ref="A19" r:id="rId28"/>
+    <hyperlink ref="A20" r:id="rId29"/>
+    <hyperlink ref="A21" r:id="rId30"/>
+    <hyperlink ref="A22" r:id="rId31"/>
+    <hyperlink ref="A23" r:id="rId32"/>
+    <hyperlink ref="A24" r:id="rId33"/>
+    <hyperlink ref="A25" r:id="rId34"/>
+    <hyperlink ref="A26" r:id="rId35"/>
+    <hyperlink ref="A27" r:id="rId36"/>
+    <hyperlink ref="A28" r:id="rId37"/>
+    <hyperlink ref="A29" r:id="rId38"/>
+    <hyperlink ref="A30" r:id="rId39"/>
+    <hyperlink ref="A31" r:id="rId40"/>
+    <hyperlink ref="A32" r:id="rId41"/>
+    <hyperlink ref="A33" r:id="rId42"/>
+    <hyperlink ref="A34" r:id="rId43"/>
+    <hyperlink ref="A35" r:id="rId44"/>
+    <hyperlink ref="A36" r:id="rId45"/>
+    <hyperlink ref="A37" r:id="rId46"/>
+    <hyperlink ref="A38" r:id="rId47"/>
+    <hyperlink ref="A39" r:id="rId48"/>
+    <hyperlink ref="A40" r:id="rId49"/>
+    <hyperlink ref="A41" r:id="rId50"/>
+    <hyperlink ref="A42" r:id="rId51"/>
+    <hyperlink ref="A43" r:id="rId52"/>
+    <hyperlink ref="A44" r:id="rId53"/>
+    <hyperlink ref="A45" r:id="rId54"/>
+    <hyperlink ref="A46" r:id="rId55"/>
+    <hyperlink ref="AG46" r:id="rId56"/>
+    <hyperlink ref="AJ46" r:id="rId57"/>
+    <hyperlink ref="AN46" r:id="rId58"/>
+    <hyperlink ref="AO46" r:id="rId59"/>
+    <hyperlink ref="A47" r:id="rId60"/>
+    <hyperlink ref="A48" r:id="rId61"/>
+    <hyperlink ref="A49" r:id="rId62"/>
+    <hyperlink ref="A50" r:id="rId63"/>
+    <hyperlink ref="A51" r:id="rId64"/>
+    <hyperlink ref="A52" r:id="rId65"/>
+    <hyperlink ref="AG52" r:id="rId66"/>
+    <hyperlink ref="AJ52" r:id="rId67"/>
+    <hyperlink ref="AN52" r:id="rId68"/>
+    <hyperlink ref="AO52" r:id="rId69"/>
+    <hyperlink ref="A53" r:id="rId70"/>
+    <hyperlink ref="A54" r:id="rId71"/>
+    <hyperlink ref="AJ54" r:id="rId72"/>
+    <hyperlink ref="AN54" r:id="rId73"/>
+    <hyperlink ref="AO54" r:id="rId74"/>
+    <hyperlink ref="A55" r:id="rId75"/>
+    <hyperlink ref="A56" r:id="rId76"/>
+    <hyperlink ref="A57" r:id="rId77"/>
+    <hyperlink ref="A58" r:id="rId78"/>
+    <hyperlink ref="A59" r:id="rId79"/>
+    <hyperlink ref="A60" r:id="rId80"/>
+    <hyperlink ref="A61" r:id="rId81"/>
+    <hyperlink ref="A62" r:id="rId82"/>
+    <hyperlink ref="A63" r:id="rId83"/>
+    <hyperlink ref="A64" r:id="rId84"/>
+    <hyperlink ref="A65" r:id="rId85"/>
+    <hyperlink ref="A66" r:id="rId86"/>
+    <hyperlink ref="A67" r:id="rId87"/>
+    <hyperlink ref="A68" r:id="rId88"/>
+    <hyperlink ref="AJ68" r:id="rId89"/>
+    <hyperlink ref="AN68" r:id="rId90"/>
+    <hyperlink ref="AO68" r:id="rId91"/>
+    <hyperlink ref="A69" r:id="rId92"/>
+    <hyperlink ref="AG69" r:id="rId93"/>
+    <hyperlink ref="AJ69" r:id="rId94"/>
+    <hyperlink ref="AN69" r:id="rId95"/>
+    <hyperlink ref="AO69" r:id="rId96"/>
+    <hyperlink ref="A70" r:id="rId97"/>
+    <hyperlink ref="AG70" r:id="rId98"/>
+    <hyperlink ref="AJ70" r:id="rId99"/>
+    <hyperlink ref="AN70" r:id="rId100"/>
+    <hyperlink ref="AO70" r:id="rId101"/>
+    <hyperlink ref="A71" r:id="rId102"/>
+    <hyperlink ref="A72" r:id="rId103"/>
+    <hyperlink ref="A73" r:id="rId104"/>
+    <hyperlink ref="A74" r:id="rId105"/>
+    <hyperlink ref="A75" r:id="rId106"/>
+    <hyperlink ref="A76" r:id="rId107"/>
+    <hyperlink ref="A77" r:id="rId108"/>
+    <hyperlink ref="A78" r:id="rId109"/>
+    <hyperlink ref="A79" r:id="rId110"/>
+    <hyperlink ref="A80" r:id="rId111"/>
+    <hyperlink ref="A81" r:id="rId112"/>
+    <hyperlink ref="A82" r:id="rId113"/>
+    <hyperlink ref="A83" r:id="rId114"/>
+    <hyperlink ref="A84" r:id="rId115"/>
+    <hyperlink ref="A85" r:id="rId116"/>
+    <hyperlink ref="A86" r:id="rId117"/>
+    <hyperlink ref="A87" r:id="rId118"/>
+    <hyperlink ref="A88" r:id="rId119"/>
+    <hyperlink ref="A89" r:id="rId120"/>
+    <hyperlink ref="A90" r:id="rId121"/>
+    <hyperlink ref="A91" r:id="rId122"/>
+    <hyperlink ref="A92" r:id="rId123"/>
+    <hyperlink ref="A93" r:id="rId124"/>
+    <hyperlink ref="A94" r:id="rId125"/>
+    <hyperlink ref="AG94" r:id="rId126"/>
+    <hyperlink ref="AJ94" r:id="rId127"/>
+    <hyperlink ref="AN94" r:id="rId128"/>
+    <hyperlink ref="AO94" r:id="rId129"/>
+    <hyperlink ref="A95" r:id="rId130"/>
+    <hyperlink ref="A96" r:id="rId131"/>
+    <hyperlink ref="A97" r:id="rId132"/>
+    <hyperlink ref="A98" r:id="rId133"/>
+    <hyperlink ref="A99" r:id="rId134"/>
+    <hyperlink ref="AG99" r:id="rId135"/>
+    <hyperlink ref="AJ99" r:id="rId136"/>
+    <hyperlink ref="AN99" r:id="rId137"/>
+    <hyperlink ref="AO99" r:id="rId138"/>
+    <hyperlink ref="A100" r:id="rId139"/>
+    <hyperlink ref="A101" r:id="rId140"/>
+    <hyperlink ref="A102" r:id="rId141"/>
+    <hyperlink ref="AG102" r:id="rId142"/>
+    <hyperlink ref="AJ102" r:id="rId143"/>
+    <hyperlink ref="AN102" r:id="rId144"/>
+    <hyperlink ref="AO102" r:id="rId145"/>
+    <hyperlink ref="A103" r:id="rId146"/>
+    <hyperlink ref="A104" r:id="rId147"/>
+    <hyperlink ref="A105" r:id="rId148"/>
+    <hyperlink ref="A106" r:id="rId149"/>
+    <hyperlink ref="A107" r:id="rId150"/>
+    <hyperlink ref="A108" r:id="rId151"/>
+    <hyperlink ref="A109" r:id="rId152"/>
+    <hyperlink ref="A110" r:id="rId153"/>
+    <hyperlink ref="A111" r:id="rId154"/>
+    <hyperlink ref="A112" r:id="rId155"/>
+    <hyperlink ref="AG112" r:id="rId156"/>
+    <hyperlink ref="AJ112" r:id="rId157"/>
+    <hyperlink ref="AN112" r:id="rId158"/>
+    <hyperlink ref="AO112" r:id="rId159"/>
+    <hyperlink ref="A113" r:id="rId160"/>
+    <hyperlink ref="AJ113" r:id="rId161"/>
+    <hyperlink ref="AN113" r:id="rId162"/>
+    <hyperlink ref="AO113" r:id="rId163"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
